--- a/static/schedule/Pасписание/5 марта 2024 вторник.xlsx
+++ b/static/schedule/Pасписание/5 марта 2024 вторник.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="118">
   <si>
     <t>Согласовано:</t>
   </si>
@@ -296,9 +296,6 @@
   <si>
     <t>Охрана труда
 Буркова Т.А.</t>
-  </si>
-  <si>
-    <t>10а/20</t>
   </si>
   <si>
     <t>5 марта 2024 (вторник)</t>
@@ -432,6 +429,14 @@
   </si>
   <si>
     <t>25</t>
+  </si>
+  <si>
+    <t>Поддержка и тестирование программных модулей
+Самостоятельная работа
+Яхругина Е.О.</t>
+  </si>
+  <si>
+    <t>9/20</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1737,7 @@
   <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,7 +1775,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="68"/>
       <c r="D1" s="68"/>
@@ -1844,7 +1849,7 @@
         <v>57</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="G3" s="63" t="s">
         <v>47</v>
@@ -1871,7 +1876,7 @@
         <v>47</v>
       </c>
       <c r="O3" s="66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P3" s="41" t="s">
         <v>39</v>
@@ -1897,7 +1902,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="41" t="s">
         <v>63</v>
@@ -1930,7 +1935,7 @@
         <v>57</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="49" t="s">
         <v>55</v>
@@ -1974,7 +1979,7 @@
         <v>57</v>
       </c>
       <c r="L5" s="41" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="M5" s="66" t="s">
         <v>75</v>
@@ -1989,7 +1994,7 @@
         <v>67</v>
       </c>
       <c r="Q5" s="66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R5" s="41" t="s">
         <v>50</v>
@@ -2036,7 +2041,7 @@
         <v>57</v>
       </c>
       <c r="N6" s="41" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="O6" s="66" t="s">
         <v>64</v>
@@ -2059,7 +2064,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>71</v>
@@ -2077,10 +2082,10 @@
         <v>47</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K7" s="63" t="s">
         <v>75</v>
@@ -2115,23 +2120,23 @@
         <v>36</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="59"/>
       <c r="F8" s="19"/>
       <c r="G8" s="25"/>
       <c r="H8" s="27"/>
       <c r="I8" s="67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J8" s="41" t="s">
         <v>71</v>
       </c>
       <c r="K8" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L8" s="41" t="s">
         <v>38</v>
@@ -2187,7 +2192,7 @@
       </c>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:18" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -2207,7 +2212,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>51</v>
@@ -2225,10 +2230,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="66" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N10" s="44" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="O10" s="67" t="s">
         <v>77</v>
@@ -2237,10 +2242,10 @@
         <v>59</v>
       </c>
       <c r="Q10" s="52" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="R10" s="44" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2257,13 +2262,13 @@
         <v>47</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="41" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="44" t="s">
         <v>51</v>
@@ -2281,10 +2286,10 @@
         <v>47</v>
       </c>
       <c r="M11" s="64" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="N11" s="41" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="O11" s="63" t="s">
         <v>65</v>
@@ -2293,10 +2298,10 @@
         <v>69</v>
       </c>
       <c r="Q11" s="52" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="R11" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2307,19 +2312,19 @@
         <v>33</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="44" t="s">
         <v>51</v>
@@ -2346,7 +2351,7 @@
         <v>76</v>
       </c>
       <c r="P12" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="67" t="s">
         <v>77</v>
@@ -2363,10 +2368,10 @@
         <v>34</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="65" t="s">
         <v>47</v>
@@ -2387,7 +2392,7 @@
         <v>48</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L13" s="41" t="s">
         <v>51</v>
@@ -2399,16 +2404,16 @@
         <v>59</v>
       </c>
       <c r="O13" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="44" t="s">
+      <c r="R13" s="44" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="R13" s="44" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2419,10 +2424,10 @@
         <v>35</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>47</v>
@@ -2443,22 +2448,22 @@
         <v>44</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L14" s="41" t="s">
         <v>51</v>
       </c>
       <c r="M14" s="66" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N14" s="44" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="O14" s="52" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P14" s="44" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="52" t="s">
         <v>47</v>
@@ -2475,10 +2480,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="41"/>
@@ -2495,16 +2500,16 @@
         <v>80</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L15" s="41" t="s">
         <v>51</v>
       </c>
       <c r="M15" s="64" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="N15" s="41" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="O15" s="52" t="s">
         <v>47</v>
@@ -2563,7 +2568,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>52</v>
@@ -2603,7 +2608,7 @@
         <v>47</v>
       </c>
       <c r="Q17" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R17" s="41" t="s">
         <v>50</v>
@@ -2617,7 +2622,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>52</v>
@@ -2657,7 +2662,7 @@
         <v>47</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R18" s="41" t="s">
         <v>50</v>
@@ -2671,7 +2676,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>52</v>
@@ -2683,7 +2688,7 @@
         <v>44</v>
       </c>
       <c r="G19" s="64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>53</v>
@@ -2695,7 +2700,7 @@
         <v>47</v>
       </c>
       <c r="K19" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L19" s="27" t="s">
         <v>71</v>
@@ -2713,7 +2718,7 @@
         <v>47</v>
       </c>
       <c r="Q19" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R19" s="41" t="s">
         <v>50</v>
@@ -2733,7 +2738,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="41" t="s">
         <v>44</v>
@@ -2745,7 +2750,7 @@
         <v>53</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J20" s="41" t="s">
         <v>45</v>
@@ -2763,7 +2768,7 @@
         <v>47</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P20" s="19" t="s">
         <v>52</v>
@@ -2789,7 +2794,7 @@
         <v>47</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" s="41" t="s">
         <v>80</v>
@@ -2819,7 +2824,7 @@
         <v>47</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P21" s="19" t="s">
         <v>52</v>
@@ -2857,7 +2862,7 @@
         <v>47</v>
       </c>
       <c r="I22" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J22" s="41" t="s">
         <v>53</v>
@@ -2875,7 +2880,7 @@
         <v>47</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P22" s="19" t="s">
         <v>52</v>
@@ -2927,13 +2932,13 @@
         <v>38</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24" s="64" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H24" s="41" t="s">
         <v>81</v>
@@ -2964,13 +2969,13 @@
         <v>38</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="64" t="s">
         <v>69</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H25" s="41" t="s">
         <v>81</v>
@@ -3000,13 +3005,13 @@
         <v>38</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="64" t="s">
         <v>38</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H26" s="41" t="s">
         <v>81</v>
@@ -3030,7 +3035,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="64" t="s">
         <v>38</v>
@@ -3042,7 +3047,7 @@
         <v>47</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H27" s="41" t="s">
         <v>81</v>
@@ -3066,7 +3071,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="64" t="s">
         <v>38</v>
@@ -3078,7 +3083,7 @@
         <v>47</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H28" s="41" t="s">
         <v>81</v>
@@ -3114,7 +3119,7 @@
         <v>47</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H29" s="41" t="s">
         <v>81</v>
